--- a/Attendance_Time_Tracking/Attendance_Time_Tracking/wwwroot/ExcelFiles/Sheet.xlsx
+++ b/Attendance_Time_Tracking/Attendance_Time_Tracking/wwwroot/ExcelFiles/Sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ITI-PD&amp;BI\MVC-Project\Project\Attendance-Time-tracking-System-\Attendance_Time_Tracking\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30CF15E8-2CEC-4E03-9A42-9A1DB5E6CFB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{891CA729-FBC1-441C-896C-BCD0FFC8A486}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -411,7 +411,7 @@
   <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M6" sqref="M6"/>
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -483,7 +483,7 @@
         <v>11</v>
       </c>
       <c r="J2">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="K2">
         <v>1</v>

--- a/Attendance_Time_Tracking/Attendance_Time_Tracking/wwwroot/ExcelFiles/Sheet.xlsx
+++ b/Attendance_Time_Tracking/Attendance_Time_Tracking/wwwroot/ExcelFiles/Sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ITI-PD&amp;BI\MVC-Project\Project\Attendance-Time-tracking-System-\Attendance_Time_Tracking\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{891CA729-FBC1-441C-896C-BCD0FFC8A486}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55703CBC-1030-48AE-9919-A2051DCE60BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="37">
   <si>
     <t>Name</t>
   </si>
@@ -79,6 +79,63 @@
   </si>
   <si>
     <t>Graduation_year</t>
+  </si>
+  <si>
+    <t>Mahala</t>
+  </si>
+  <si>
+    <t>Engineering</t>
+  </si>
+  <si>
+    <t>Computers</t>
+  </si>
+  <si>
+    <t>Tanta</t>
+  </si>
+  <si>
+    <t>Ahmed</t>
+  </si>
+  <si>
+    <t>mohamed@email.com</t>
+  </si>
+  <si>
+    <t>alaa@email.com</t>
+  </si>
+  <si>
+    <t>ali@email.com</t>
+  </si>
+  <si>
+    <t>ahmed@email.com</t>
+  </si>
+  <si>
+    <t>Kafr Elshiekh</t>
+  </si>
+  <si>
+    <t>Software</t>
+  </si>
+  <si>
+    <t>AI</t>
+  </si>
+  <si>
+    <t>Communication</t>
+  </si>
+  <si>
+    <t>Helwan</t>
+  </si>
+  <si>
+    <t>Damitta</t>
+  </si>
+  <si>
+    <t>Cairo</t>
+  </si>
+  <si>
+    <t>Ali</t>
+  </si>
+  <si>
+    <t>Alaa</t>
+  </si>
+  <si>
+    <t>Mohamed</t>
   </si>
 </sst>
 </file>
@@ -408,10 +465,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K2"/>
+  <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -489,10 +546,158 @@
         <v>1</v>
       </c>
     </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3">
+        <v>123456789</v>
+      </c>
+      <c r="D3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G3" s="1">
+        <v>44927</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="J3">
+        <v>1</v>
+      </c>
+      <c r="K3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4">
+        <v>123456789</v>
+      </c>
+      <c r="D4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E4" t="s">
+        <v>28</v>
+      </c>
+      <c r="F4" t="s">
+        <v>31</v>
+      </c>
+      <c r="G4" s="1">
+        <v>45292</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="J4">
+        <v>2</v>
+      </c>
+      <c r="K4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5">
+        <v>123456789</v>
+      </c>
+      <c r="D5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" t="s">
+        <v>30</v>
+      </c>
+      <c r="F5" t="s">
+        <v>33</v>
+      </c>
+      <c r="G5" s="1">
+        <v>44567</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="J5">
+        <v>3</v>
+      </c>
+      <c r="K5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>36</v>
+      </c>
+      <c r="B6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6">
+        <v>123456789</v>
+      </c>
+      <c r="D6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E6" t="s">
+        <v>29</v>
+      </c>
+      <c r="F6" t="s">
+        <v>32</v>
+      </c>
+      <c r="G6" s="1">
+        <v>44197</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="J6">
+        <v>3</v>
+      </c>
+      <c r="K6">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="H2" r:id="rId1" xr:uid="{242E97B0-6FD8-4620-9D9F-37DC772A3D13}"/>
     <hyperlink ref="I2" r:id="rId2" xr:uid="{3782719F-46C7-4DC7-B674-88EFAD01A6FA}"/>
+    <hyperlink ref="H3" r:id="rId3" xr:uid="{076220D5-E23E-4680-A3D4-F3C2D3E1B4EC}"/>
+    <hyperlink ref="H4" r:id="rId4" xr:uid="{24A84A15-E8A0-4C87-A140-44048CC0FF82}"/>
+    <hyperlink ref="H5" r:id="rId5" xr:uid="{767A788D-BE20-4CD3-AC97-3F0A68C36087}"/>
+    <hyperlink ref="H6" r:id="rId6" xr:uid="{F2EE5ADA-A187-447B-AC46-BCA7BC0B85B4}"/>
+    <hyperlink ref="I3" r:id="rId7" xr:uid="{4ADC01C9-06A0-4D57-900A-89ED402FE579}"/>
+    <hyperlink ref="I4" r:id="rId8" xr:uid="{03F697DD-528B-4EE3-B9E7-FF009A0D4A4D}"/>
+    <hyperlink ref="I5" r:id="rId9" xr:uid="{91B1A644-EB0F-428C-BBE7-5820806058C2}"/>
+    <hyperlink ref="I6" r:id="rId10" xr:uid="{486E68F1-400F-4C6B-89BC-E3B757BCEC19}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
